--- a/biology/Médecine/Ivan_Setchenov/Ivan_Setchenov.xlsx
+++ b/biology/Médecine/Ivan_Setchenov/Ivan_Setchenov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Mikhaïlovitch Setchenov (en russe : Иван Михайлович Сеченов), né le 13 août 1829 à Tioply Stan (maintenant Setchenovo) près de Simbirsk et mort le 15 novembre 1905 à Moscou, est un physiologiste et neurologue russe considéré comme le pionnier de ces disciplines dans son pays.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'Académie du génie Nicolas, Ivan Setchenov entre à l'Université de Moscou où il reste jusqu'en 1856.
 Il travaille à Paris auprès de Claude Bernard et introduit en Russie la méthode expérimentale de son maître. Dans le domaine de la électrophysiologie et de la neurophysiologie du système nerveux central, il découvre en 1865 les centres inhibiteurs des réflexes spinaux en constatant que la section de la moelle épinière chez la grenouille provoque la disparition transitoire des réflexes au-dessous du niveau de la section (choc spinal).
@@ -546,7 +560,9 @@
           <t>Adresses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>N°10/2 petite rue des Italiens, Saint-Pétersbourg</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(5234) Sechenov</t>
         </is>
